--- a/public/template/satuan 1 Header.xlsx
+++ b/public/template/satuan 1 Header.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alwi_mansyur/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/sesendokneo/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05D3930-0B7C-1E47-A72F-52C18EC37F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B966F4-F780-184F-9F34-A77858BEAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="531">
-  <si>
-    <t>value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="531">
   <si>
     <t>item</t>
   </si>
@@ -1613,6 +1610,9 @@
   </si>
   <si>
     <t>Hari / M&lt;sup&gt;2&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -1675,12 +1675,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EA32035-E7EC-A245-B4F3-05360C1ED878}" name="Tabel1" displayName="Tabel1" ref="A1:D460" totalsRowShown="0" headerRowDxfId="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D460">
-    <sortCondition ref="A1:A460"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EA32035-E7EC-A245-B4F3-05360C1ED878}" name="Tabel1" displayName="Tabel1" ref="A1:D459" totalsRowShown="0" headerRowDxfId="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D459">
+    <sortCondition ref="A1:A459"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5D981AA9-BFED-2145-8E4D-3E2FCAAA55E8}" name="value"/>
+    <tableColumn id="1" xr3:uid="{5D981AA9-BFED-2145-8E4D-3E2FCAAA55E8}" name="Value"/>
     <tableColumn id="2" xr3:uid="{62842373-A8FF-1A46-A2BA-2FFE0A4D69E4}" name="item"/>
     <tableColumn id="3" xr3:uid="{263D512C-D1C5-7E41-8877-EA0DDD66B344}" name="Keterangan"/>
     <tableColumn id="4" xr3:uid="{1C1FEC5A-DB79-BC48-8E9A-C237D5C4B64E}" name="Sebutan lain"/>
@@ -2011,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D460"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2025,35 +2025,35 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2066,10 +2066,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2082,66 +2082,66 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>522</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2162,26 +2162,26 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>368</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>369</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,21 +2194,21 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2221,10 +2221,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>369</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2261,26 +2261,26 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="B29" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>472</v>
+        <v>374</v>
       </c>
       <c r="B30" t="s">
-        <v>472</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>375</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>375</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2293,42 +2293,42 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>454</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>455</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>455</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -2349,58 +2349,58 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>478</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="B41" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B43" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B44" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="B45" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>477</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>477</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2429,211 +2429,211 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>376</v>
+        <v>505</v>
       </c>
       <c r="B51" t="s">
-        <v>376</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B52" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="B53" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B54" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>478</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>478</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>352</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="D64" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>377</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>377</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>154</v>
+      </c>
+      <c r="D71" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>377</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" t="s">
-        <v>156</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="B73" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B74" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2662,10 +2662,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>382</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
-        <v>382</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2710,18 +2710,18 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2750,18 +2750,18 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>461</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>462</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s">
-        <v>462</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,10 +2774,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>382</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2790,45 +2790,45 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>384</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="D95" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2849,144 +2849,144 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>385</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>462</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>463</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>463</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>501</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>502</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>502</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>195</v>
       </c>
-      <c r="B111" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
+      <c r="B113" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>530</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>521</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>521</v>
+        <v>149</v>
+      </c>
+      <c r="D116" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
-      </c>
-      <c r="D117" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2999,53 +2999,56 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>72</v>
+      </c>
+      <c r="D120" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
-      </c>
-      <c r="D121" t="s">
-        <v>74</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>460</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B123" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3053,18 +3056,15 @@
         <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3077,18 +3077,18 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>385</v>
       </c>
       <c r="B130" t="s">
-        <v>148</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -3101,34 +3101,34 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>387</v>
+        <v>201</v>
       </c>
       <c r="B132" t="s">
-        <v>387</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>479</v>
       </c>
       <c r="B133" t="s">
-        <v>202</v>
+        <v>479</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="B134" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>511</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
-        <v>511</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -3141,10 +3141,10 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>387</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -3157,10 +3157,10 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>389</v>
+        <v>204</v>
       </c>
       <c r="B139" t="s">
-        <v>389</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -3173,26 +3173,26 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
       <c r="B141" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>359</v>
+        <v>463</v>
       </c>
       <c r="B142" t="s">
-        <v>359</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>464</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
-        <v>464</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -3205,10 +3205,10 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>389</v>
       </c>
       <c r="B145" t="s">
-        <v>208</v>
+        <v>389</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -3221,18 +3221,18 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>391</v>
+        <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>391</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="B148" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -3240,15 +3240,15 @@
         <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -3277,42 +3277,42 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>395</v>
+        <v>209</v>
       </c>
       <c r="B154" t="s">
-        <v>395</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="B155" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="B156" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="B157" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>396</v>
+        <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>396</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -3320,23 +3320,23 @@
         <v>54</v>
       </c>
       <c r="B159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="B160" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>212</v>
+        <v>396</v>
       </c>
       <c r="B161" t="s">
-        <v>212</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -3349,18 +3349,18 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>398</v>
+        <v>116</v>
       </c>
       <c r="B163" t="s">
-        <v>398</v>
+        <v>116</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="B164" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3373,18 +3373,18 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="B166" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="B167" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -3397,45 +3397,45 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>71</v>
+      </c>
+      <c r="D169" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="B170" t="s">
-        <v>72</v>
-      </c>
-      <c r="D170" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B172" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="B173" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -3448,18 +3448,18 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>400</v>
+        <v>217</v>
       </c>
       <c r="B175" t="s">
-        <v>400</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>218</v>
+        <v>493</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -3472,10 +3472,10 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B178" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -3488,202 +3488,202 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B180" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B181" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>496</v>
+        <v>218</v>
       </c>
       <c r="B182" t="s">
-        <v>496</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>219</v>
+        <v>514</v>
       </c>
       <c r="B183" t="s">
-        <v>219</v>
+        <v>514</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>515</v>
+        <v>219</v>
       </c>
       <c r="B184" t="s">
-        <v>515</v>
+        <v>219</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>511</v>
       </c>
       <c r="B185" t="s">
-        <v>220</v>
+        <v>511</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="B186" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B187" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B188" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B190" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="B191" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="B192" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="B193" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B194" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B195" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B196" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B197" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B198" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B199" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B200" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>487</v>
+        <v>220</v>
       </c>
       <c r="B201" t="s">
-        <v>487</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>221</v>
+        <v>457</v>
       </c>
       <c r="B202" t="s">
-        <v>221</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>458</v>
+        <v>221</v>
       </c>
       <c r="B203" t="s">
-        <v>458</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="B204" t="s">
-        <v>222</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3696,29 +3696,29 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="B206" t="s">
-        <v>402</v>
+        <v>43</v>
+      </c>
+      <c r="D206" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="B207" t="s">
-        <v>44</v>
-      </c>
-      <c r="D207" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="B208" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3726,23 +3726,23 @@
         <v>29</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>30</v>
+        <v>402</v>
       </c>
       <c r="B210" t="s">
-        <v>30</v>
+        <v>402</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>403</v>
+        <v>223</v>
       </c>
       <c r="B211" t="s">
-        <v>403</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3755,26 +3755,26 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="B213" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>404</v>
+        <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>404</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>226</v>
+        <v>404</v>
       </c>
       <c r="B215" t="s">
-        <v>226</v>
+        <v>404</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -3787,10 +3787,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>406</v>
+        <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>406</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -3835,37 +3835,37 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="B223" t="s">
-        <v>232</v>
+        <v>152</v>
+      </c>
+      <c r="D223" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="B224" t="s">
-        <v>153</v>
-      </c>
-      <c r="D224" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="B225" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="B226" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -3902,74 +3902,74 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="B231" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="B233" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>406</v>
       </c>
       <c r="B235" t="s">
-        <v>240</v>
+        <v>406</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>407</v>
+        <v>112</v>
       </c>
       <c r="B236" t="s">
-        <v>407</v>
+        <v>113</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>407</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>407</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>408</v>
+        <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>408</v>
+        <v>241</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -3990,40 +3990,40 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>69</v>
-      </c>
-      <c r="D243" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>80</v>
+      </c>
+      <c r="D244" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>81</v>
-      </c>
-      <c r="D245" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -4036,82 +4036,85 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B248" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B249" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>527</v>
       </c>
       <c r="B251" t="s">
-        <v>248</v>
+        <v>527</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>528</v>
+        <v>132</v>
       </c>
       <c r="B252" t="s">
-        <v>528</v>
+        <v>133</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B253" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>121</v>
+        <v>408</v>
       </c>
       <c r="B254" t="s">
-        <v>122</v>
+        <v>408</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="B255" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="B256" t="s">
-        <v>354</v>
+        <v>21</v>
+      </c>
+      <c r="C256" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -4119,18 +4122,15 @@
         <v>21</v>
       </c>
       <c r="B257" t="s">
-        <v>22</v>
-      </c>
-      <c r="C257" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>22</v>
+        <v>409</v>
       </c>
       <c r="B258" t="s">
-        <v>22</v>
+        <v>409</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,10 +4143,16 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>411</v>
+        <v>17</v>
+      </c>
+      <c r="C260" t="s">
+        <v>18</v>
+      </c>
+      <c r="D260" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -4154,61 +4160,55 @@
         <v>17</v>
       </c>
       <c r="B261" t="s">
-        <v>18</v>
-      </c>
-      <c r="C261" t="s">
-        <v>19</v>
-      </c>
-      <c r="D261" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>18</v>
+        <v>489</v>
       </c>
       <c r="B262" t="s">
-        <v>18</v>
+        <v>489</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="B263" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>469</v>
+        <v>248</v>
       </c>
       <c r="B264" t="s">
-        <v>469</v>
+        <v>248</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>249</v>
+        <v>490</v>
       </c>
       <c r="B265" t="s">
-        <v>249</v>
+        <v>490</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="B266" t="s">
-        <v>491</v>
+        <v>411</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>412</v>
+        <v>249</v>
       </c>
       <c r="B267" t="s">
-        <v>412</v>
+        <v>249</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -4245,18 +4245,18 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>254</v>
+        <v>465</v>
       </c>
       <c r="B272" t="s">
-        <v>254</v>
+        <v>465</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>466</v>
+        <v>254</v>
       </c>
       <c r="B273" t="s">
-        <v>466</v>
+        <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -4277,18 +4277,18 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="B276" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="B277" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -4333,18 +4333,18 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="B283" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B284" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -4365,26 +4365,26 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="B287" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="B288" t="s">
-        <v>349</v>
+        <v>455</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>456</v>
+        <v>266</v>
       </c>
       <c r="B289" t="s">
-        <v>456</v>
+        <v>266</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -4397,42 +4397,42 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="B291" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B292" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>350</v>
+        <v>268</v>
       </c>
       <c r="B293" t="s">
-        <v>350</v>
+        <v>268</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>269</v>
+        <v>456</v>
       </c>
       <c r="B294" t="s">
-        <v>269</v>
+        <v>456</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B295" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -4445,50 +4445,50 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B297" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>461</v>
+        <v>269</v>
       </c>
       <c r="B298" t="s">
-        <v>461</v>
+        <v>269</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>270</v>
+        <v>516</v>
       </c>
       <c r="B299" t="s">
-        <v>270</v>
+        <v>516</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
       <c r="B300" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>467</v>
+        <v>122</v>
       </c>
       <c r="B301" t="s">
-        <v>467</v>
+        <v>123</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="B302" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -4501,34 +4501,34 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>272</v>
+        <v>528</v>
       </c>
       <c r="B304" t="s">
-        <v>272</v>
+        <v>528</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>529</v>
+        <v>15</v>
       </c>
       <c r="B305" t="s">
-        <v>529</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="B306" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="B307" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -4565,10 +4565,10 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>277</v>
+        <v>412</v>
       </c>
       <c r="B312" t="s">
-        <v>277</v>
+        <v>412</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -4597,10 +4597,10 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>416</v>
+        <v>277</v>
       </c>
       <c r="B316" t="s">
-        <v>416</v>
+        <v>277</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -4613,10 +4613,10 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>279</v>
+        <v>416</v>
       </c>
       <c r="B318" t="s">
-        <v>279</v>
+        <v>416</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -4653,10 +4653,10 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>421</v>
+        <v>279</v>
       </c>
       <c r="B323" t="s">
-        <v>421</v>
+        <v>279</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -4709,50 +4709,50 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="B330" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="B331" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="B332" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B333" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B334" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="B335" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -4773,18 +4773,18 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="B338" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="B339" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -4813,18 +4813,18 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="B343" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="B344" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -4837,18 +4837,18 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>296</v>
+        <v>360</v>
       </c>
       <c r="B346" t="s">
-        <v>296</v>
+        <v>360</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="B347" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -4869,46 +4869,46 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>424</v>
+        <v>62</v>
       </c>
       <c r="B350" t="s">
-        <v>424</v>
+        <v>63</v>
+      </c>
+      <c r="D350" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B351" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D351" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B352" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D352" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>60</v>
+        <v>424</v>
       </c>
       <c r="B353" t="s">
-        <v>61</v>
-      </c>
-      <c r="D353" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>425</v>
       </c>
@@ -4916,15 +4916,15 @@
         <v>425</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>426</v>
+        <v>296</v>
       </c>
       <c r="B355" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>297</v>
       </c>
@@ -4932,15 +4932,15 @@
         <v>297</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="B357" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>427</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>428</v>
       </c>
@@ -4956,47 +4956,47 @@
         <v>428</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>298</v>
+      </c>
+      <c r="B360" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>14</v>
+      </c>
+      <c r="B361" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
         <v>429</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B362" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>345</v>
+      </c>
+      <c r="B363" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
         <v>299</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B364" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>15</v>
-      </c>
-      <c r="B362" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>430</v>
-      </c>
-      <c r="B363" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>346</v>
-      </c>
-      <c r="B364" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>300</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>301</v>
       </c>
@@ -5012,60 +5012,60 @@
         <v>301</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>302</v>
+        <v>118</v>
       </c>
       <c r="B367" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>119</v>
+        <v>363</v>
       </c>
       <c r="B368" t="s">
-        <v>120</v>
+        <v>363</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>364</v>
+        <v>519</v>
       </c>
       <c r="B369" t="s">
-        <v>364</v>
+        <v>519</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B370" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>431</v>
+        <v>302</v>
       </c>
       <c r="B371" t="s">
-        <v>431</v>
+        <v>302</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>303</v>
+        <v>431</v>
       </c>
       <c r="B372" t="s">
-        <v>303</v>
+        <v>431</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>432</v>
+        <v>303</v>
       </c>
       <c r="B373" t="s">
-        <v>432</v>
+        <v>303</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -5086,42 +5086,42 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>306</v>
+        <v>432</v>
       </c>
       <c r="B376" t="s">
-        <v>306</v>
+        <v>432</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>433</v>
+        <v>306</v>
       </c>
       <c r="B377" t="s">
-        <v>433</v>
+        <v>306</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="B378" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>33</v>
+        <v>497</v>
       </c>
       <c r="B379" t="s">
-        <v>34</v>
+        <v>497</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>498</v>
+        <v>307</v>
       </c>
       <c r="B380" t="s">
-        <v>498</v>
+        <v>307</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -5134,50 +5134,50 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
       <c r="B382" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="B383" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="B384" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="B385" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>434</v>
+        <v>309</v>
       </c>
       <c r="B386" t="s">
-        <v>434</v>
+        <v>309</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B387" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -5190,26 +5190,26 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>314</v>
+        <v>488</v>
       </c>
       <c r="B389" t="s">
-        <v>314</v>
+        <v>488</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="B390" t="s">
-        <v>489</v>
+        <v>314</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
       <c r="B391" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -5246,10 +5246,10 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>439</v>
+        <v>315</v>
       </c>
       <c r="B396" t="s">
-        <v>439</v>
+        <v>315</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -5262,34 +5262,34 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>317</v>
+        <v>439</v>
       </c>
       <c r="B398" t="s">
-        <v>317</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>440</v>
+        <v>317</v>
       </c>
       <c r="B399" t="s">
-        <v>440</v>
+        <v>317</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="B400" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="B401" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -5310,34 +5310,34 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="B404" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="B405" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="B406" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>353</v>
+        <v>441</v>
       </c>
       <c r="B407" t="s">
-        <v>353</v>
+        <v>441</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -5350,18 +5350,18 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
       <c r="B409" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B410" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -5374,34 +5374,34 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>324</v>
+        <v>458</v>
       </c>
       <c r="B412" t="s">
-        <v>324</v>
+        <v>458</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>459</v>
+        <v>324</v>
       </c>
       <c r="B413" t="s">
-        <v>459</v>
+        <v>324</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>325</v>
+        <v>443</v>
       </c>
       <c r="B414" t="s">
-        <v>325</v>
+        <v>443</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>444</v>
+        <v>325</v>
       </c>
       <c r="B415" t="s">
-        <v>444</v>
+        <v>325</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -5414,10 +5414,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="B417" t="s">
-        <v>327</v>
+        <v>12</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -5425,31 +5425,31 @@
         <v>12</v>
       </c>
       <c r="B418" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="B419" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>328</v>
+        <v>444</v>
       </c>
       <c r="B420" t="s">
-        <v>328</v>
+        <v>444</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>445</v>
+        <v>328</v>
       </c>
       <c r="B421" t="s">
-        <v>445</v>
+        <v>328</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -5470,26 +5470,26 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B424" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>311</v>
+        <v>500</v>
       </c>
       <c r="B425" t="s">
-        <v>311</v>
+        <v>500</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>501</v>
+        <v>331</v>
       </c>
       <c r="B426" t="s">
-        <v>501</v>
+        <v>331</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -5502,18 +5502,18 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
       <c r="B428" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>118</v>
+        <v>333</v>
       </c>
       <c r="B429" t="s">
-        <v>118</v>
+        <v>333</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -5526,10 +5526,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="B431" t="s">
-        <v>335</v>
+        <v>45</v>
+      </c>
+      <c r="D431" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -5537,42 +5540,39 @@
         <v>45</v>
       </c>
       <c r="B432" t="s">
-        <v>46</v>
-      </c>
-      <c r="D432" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>46</v>
+        <v>515</v>
       </c>
       <c r="B433" t="s">
-        <v>46</v>
+        <v>515</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>516</v>
+        <v>445</v>
       </c>
       <c r="B434" t="s">
-        <v>516</v>
+        <v>445</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>446</v>
+        <v>13</v>
       </c>
       <c r="B435" t="s">
-        <v>446</v>
+        <v>13</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="B436" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -5601,10 +5601,10 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>339</v>
+        <v>446</v>
       </c>
       <c r="B440" t="s">
-        <v>339</v>
+        <v>446</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -5633,61 +5633,61 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="B444" t="s">
-        <v>450</v>
+        <v>51</v>
+      </c>
+      <c r="D444" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B445" t="s">
-        <v>52</v>
-      </c>
-      <c r="D445" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>24</v>
+        <v>472</v>
       </c>
       <c r="B446" t="s">
-        <v>25</v>
+        <v>472</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>473</v>
+        <v>339</v>
       </c>
       <c r="B447" t="s">
-        <v>473</v>
+        <v>339</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="B448" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
       <c r="B449" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
       <c r="B450" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -5700,74 +5700,66 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>453</v>
+        <v>341</v>
       </c>
       <c r="B452" t="s">
-        <v>453</v>
+        <v>341</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>342</v>
+        <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>342</v>
+        <v>453</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>454</v>
+        <v>342</v>
       </c>
       <c r="B454" t="s">
-        <v>454</v>
+        <v>342</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="B455" t="s">
-        <v>343</v>
+        <v>78</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B456" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B457" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B458" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="B459" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>344</v>
-      </c>
-      <c r="B460" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
